--- a/report.xlsx
+++ b/report.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="Rb2717e4cca0742bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист" sheetId="1" r:id="R0063cfbd5a6d4e6a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -13,10 +13,13 @@
     <x:t>Список визитов</x:t>
   </x:si>
   <x:si>
-    <x:t>24.05.2022 22:55:05</x:t>
+    <x:t>dsdfs</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
+    <x:t>dasdaw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -112,8 +115,13 @@
       </x:c>
     </x:row>
     <x:row r="3">
-      <x:c r="C3" s="0" t="s">
+      <x:c r="B3" s="1" t="s">
         <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="C4" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
